--- a/数据整理/stocks/A股/创业板/300567-精测电子.xlsx
+++ b/数据整理/stocks/A股/创业板/300567-精测电子.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009419</t>
+          <t>050009</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>宝盈祥明一年定期开放混合A</t>
+          <t>博时新兴成长混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>21.58</t>
+          <t>39.70</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.94</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>6</v>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1795</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009420</t>
+          <t>519029</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>宝盈祥明一年定期开放混合C</t>
+          <t>华夏稳增混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>21.58</t>
+          <t>14.22</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.94</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>6</v>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8504</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>008093</t>
+          <t>009419</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>同泰慧选混合A</t>
+          <t>宝盈祥明一年定期开放混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.26</t>
+          <t>6.51</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
+          <t>21.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1263</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>008094</t>
+          <t>008842</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>同泰慧选混合C</t>
+          <t>同泰远见灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.26</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
+          <t>24.50</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0702</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -614,15 +664,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>93.64</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>2.94</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0544</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>8</v>
       </c>
     </row>
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>008181</t>
+          <t>008093</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>同泰慧利混合C</t>
+          <t>同泰慧选混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>93.64</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>8</v>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>050009</t>
+          <t>009420</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>博时新兴成长混合</t>
+          <t>宝盈祥明一年定期开放混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>94.81</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5.49</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>8</v>
+          <t>21.58</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>519029</t>
+          <t>008094</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华夏稳增混合</t>
+          <t>同泰慧选混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>93.95</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>5.98</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>4</v>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>008842</t>
+          <t>008181</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>同泰远见灵活配置混合A</t>
+          <t>同泰慧利混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>24.50</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.83</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -754,15 +854,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>24.50</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>2.83</t>
         </is>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -777,7 +887,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -798,15 +908,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -818,26 +938,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002823</t>
+          <t>050009</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>招商盛达灵活配置混合A</t>
+          <t>博时新兴成长混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>86.18</t>
+          <t>30.56</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>6.11</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>2</v>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1759</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -846,26 +976,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002824</t>
+          <t>519029</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>招商盛达灵活配置混合C</t>
+          <t>华夏稳增混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>86.18</t>
+          <t>11.56</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>6.11</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>2</v>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7237</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005482</t>
+          <t>001404</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>博时创新驱动灵活配置混合A</t>
+          <t>招商移动互联网产业股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>72.78</t>
+          <t>5.67</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.86</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3538</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005483</t>
+          <t>008655</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>博时创新驱动灵活配置混合C</t>
+          <t>招商科技创新混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>72.78</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.86</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3357</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -940,15 +1100,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>88.53</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>4.16</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2450</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>9</v>
       </c>
     </row>
@@ -958,25 +1128,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001215</t>
+          <t>001468</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>博时沪港深优质企业灵活配置混合A</t>
+          <t>广发改革先锋灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>84.49</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.57</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1446</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>8</v>
       </c>
     </row>
@@ -986,25 +1166,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>002555</t>
+          <t>000823</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>博时沪港深优质企业灵活配置混合C</t>
+          <t>银华高端制造业灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>84.49</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.57</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1196</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1014,25 +1204,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>000823</t>
+          <t>001215</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>银华高端制造业灵活配置混合</t>
+          <t>博时沪港深优质企业灵活配置混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>90.48</t>
+          <t>4.06</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.43</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
+          <t>84.49</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1043</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1042,25 +1242,35 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>001404</t>
+          <t>610006</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>招商移动互联网产业股票</t>
+          <t>信达澳银产业升级混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>86.44</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>6.24</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0645</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1070,25 +1280,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>050009</t>
+          <t>008656</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>博时新兴成长混合</t>
+          <t>招商科技创新混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>89.92</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>7.12</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>001468</t>
+          <t>610004</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>广发改革先锋灵活配置混合</t>
+          <t>信达澳银中小盘混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>90.42</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3.11</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>8</v>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>519029</t>
+          <t>002823</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>华夏稳增混合</t>
+          <t>招商盛达灵活配置混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>94.04</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>6.26</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>4</v>
+          <t>86.18</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>610004</t>
+          <t>005482</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>信达澳银中小盘混合</t>
+          <t>博时创新驱动灵活配置混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>91.79</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3.58</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>3</v>
+          <t>72.78</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>610006</t>
+          <t>002555</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>信达澳银产业升级混合</t>
+          <t>博时沪港深优质企业灵活配置混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>92.61</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>3</v>
+          <t>84.49</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>008655</t>
+          <t>002824</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>招商科技创新混合A</t>
+          <t>招商盛达灵活配置混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>89.91</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>7.22</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>5</v>
+          <t>86.18</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>008656</t>
+          <t>005483</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>招商科技创新混合C</t>
+          <t>博时创新驱动灵活配置混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>89.91</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>7.22</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>5</v>
+          <t>72.78</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300567-精测电子.xlsx
+++ b/数据整理/stocks/A股/创业板/300567-精测电子.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1543,4 +1544,516 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>050009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>35.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4359</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010695</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏磐益一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.16</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>64.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8993</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519029</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏稳增混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5305</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009837</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏磐锐一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1824</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011383</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富安达医药创新混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1725</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>164401</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源中证健康产业指数</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0429</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000458</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>英大领先回报混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002210</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001270</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>英大灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001271</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>英大灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009838</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏磐锐一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.94</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003865</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300567-精测电子.xlsx
+++ b/数据整理/stocks/A股/创业板/300567-精测电子.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2056,4 +2057,326 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012428</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏核心制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>58.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>74.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5268</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>050009</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>30.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0275</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012429</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏核心制造混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.64</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>74.04</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5460</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009837</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏磐锐一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1557</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011383</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富安达医药创新混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.56</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1228</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002863</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>金信深圳成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009838</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏磐锐一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300567-精测电子.xlsx
+++ b/数据整理/stocks/A股/创业板/300567-精测电子.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2379,4 +2380,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.41</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.34</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>16</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.38</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300567-精测电子.xlsx
+++ b/数据整理/stocks/A股/创业板/300567-精测电子.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2388,7 +2389,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2399,17 +2400,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2419,14 +2440,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.41</v>
+          <t>012428</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏核心制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>71.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.8348</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -2435,14 +2478,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.34</v>
+          <t>050009</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>32.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.8724</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -2451,14 +2516,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>16</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.38</v>
+          <t>010695</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏磐益一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>24.63</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1281</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -2467,13 +2554,1215 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>007251</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发睿享稳健增利混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>35.77</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>39.39</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8764</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001404</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商移动互联网产业股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8242</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010452</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发瑞福精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>19.81</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8142</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001736</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>圆信永丰优加生活股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>52.69</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>80.19</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7956</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002121</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发沪港深新起点股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.53</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7840</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008655</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.90</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5069</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>550009</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>信诚中小盘混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3023</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>630011</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华商主题精选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2837</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006122</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华安低碳生活混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2326</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>398011</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中海分红增利混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2096</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010469</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>13.88</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.07</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2026</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001279</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中海积极增利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1486</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010453</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发瑞福精选混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1480</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>540002</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇丰晋信龙腾混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>83.05</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1208</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001574</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中海混改红利主题精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1128</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011383</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富安达医药创新混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0724</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008656</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0722</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002213</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中海顺鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0628</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009475</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇丰晋信慧盈混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>27.28</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0489</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>159804</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国寿安保国证创业板中盘精选88ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0401</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>164401</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>前海开源中证健康产业指数</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002863</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>金信深圳成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>000458</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>英大领先回报混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>350007</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>天治趋势精选混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>45.01</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>000688</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>景顺长城研究精选股票</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>85.75</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001270</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>英大灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>540007</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘股票</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001271</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>英大灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010470</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>84.07</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>32</v>
+      </c>
+      <c r="D2" t="n">
+        <v>15.66</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.41</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.34</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>16</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.38</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>10</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>3.32</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300567-精测电子.xlsx
+++ b/数据整理/stocks/A股/创业板/300567-精测电子.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3661,7 +3662,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3672,17 +3673,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3692,14 +3713,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>32</v>
-      </c>
-      <c r="D2" t="n">
-        <v>15.66</v>
+          <t>050009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>32.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2413</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -3708,14 +3751,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.41</v>
+          <t>012428</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏核心制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>43.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1306</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -3724,14 +3789,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.34</v>
+          <t>012429</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏核心制造混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4432</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -3740,14 +3827,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>16</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4.38</v>
+          <t>398011</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中海分红增利混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1116</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -3756,13 +3865,243 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>002213</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中海顺鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011377</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>创金合信积极成长股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011378</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>创金合信积极成长股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.98</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>32</v>
+      </c>
+      <c r="D3" t="n">
+        <v>15.66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.41</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.34</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>16</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.38</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>10</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>3.32</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300567-精测电子.xlsx
+++ b/数据整理/stocks/A股/创业板/300567-精测电子.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3984,7 +3985,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3995,17 +3996,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4015,14 +4036,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.98</v>
+          <t>012428</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏核心制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>43.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1334</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -4031,14 +4074,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>32</v>
-      </c>
-      <c r="D3" t="n">
-        <v>15.66</v>
+          <t>050009</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>27.54</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7130</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -4047,14 +4112,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.41</v>
+          <t>012429</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏核心制造混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4386</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -4063,14 +4150,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>12</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4.34</v>
+          <t>002863</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>金信深圳成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -4079,14 +4188,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>16</v>
-      </c>
-      <c r="D6" t="n">
-        <v>4.38</v>
+          <t>011377</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>创金合信积极成长股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -4095,13 +4226,183 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>011378</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>创金合信积极成长股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.33</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.98</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>32</v>
+      </c>
+      <c r="D4" t="n">
+        <v>15.66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.41</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>12</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.34</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>16</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4.38</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>10</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>3.32</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300567-精测电子.xlsx
+++ b/数据整理/stocks/A股/创业板/300567-精测电子.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>4.33</v>
+        <v>4.38</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>4.98</v>
+        <v>4.33</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>15.66</v>
+        <v>4.98</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="D5" t="n">
-        <v>5.41</v>
+        <v>15.66</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>4.34</v>
+        <v>5.41</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D7" t="n">
-        <v>4.38</v>
+        <v>4.34</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>16</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4.38</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>10</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>3.32</v>
       </c>
     </row>
@@ -600,6 +617,518 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012428</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏核心制造混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>34.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.52</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6436</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>050009</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.16</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1548</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>013389</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏成长先锋一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.25</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5578</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012429</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏核心制造混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.52</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4164</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>169103</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方红睿轩三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.31</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>70.03</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2488</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013390</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏成长先锋一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1861</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159743</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时中证湖北新旧动能转换ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.93</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0589</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014737</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>创金合信专精特新股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.21</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002863</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>金信深圳成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014736</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>创金合信专精特新股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>81.21</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011377</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>创金合信积极成长股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011378</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>创金合信积极成长股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -883,7 +1412,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1205,7 +1734,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2477,7 +3006,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2799,7 +3328,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3311,7 +3840,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3975,7 +4504,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300567-精测电子.xlsx
+++ b/数据整理/stocks/A股/创业板/300567-精测电子.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>4.38</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D3" t="n">
-        <v>4.33</v>
+        <v>4.38</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>4.98</v>
+        <v>4.33</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>15.66</v>
+        <v>4.98</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="D6" t="n">
-        <v>5.41</v>
+        <v>15.66</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>4.34</v>
+        <v>5.41</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D8" t="n">
-        <v>4.38</v>
+        <v>4.34</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>16</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4.38</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>10</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>3.32</v>
       </c>
     </row>
@@ -616,7 +633,1183 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>050009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>39.70</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1795</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519029</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏稳增混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8504</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009419</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>宝盈祥明一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>21.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1263</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008842</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>同泰远见灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>24.50</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0702</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008180</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>同泰慧利混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0544</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008093</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>同泰慧选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009420</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>宝盈祥明一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>21.58</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008094</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>同泰慧选混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008181</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>同泰慧利混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008843</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>同泰远见灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>24.50</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012428</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏核心制造混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>32.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>76.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9122</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>050009</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3900</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>163412</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全轻资产混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>49.89</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2772</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013389</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏成长先锋一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.63</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.24</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6838</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012429</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏核心制造混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.69</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>76.47</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5698</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013840</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华集成电路混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4737</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013841</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银华集成电路混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4103</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013390</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏成长先锋一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>80.24</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2111</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010622</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>恒越成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.54</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>68.17</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2034</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009715</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富策略增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.61</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1730</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014737</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>创金合信专精特新股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.36</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1713</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010623</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>恒越成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>68.17</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0861</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014736</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>创金合信专精特新股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>9.36</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0758</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159743</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时中证湖北新旧动能转换ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.18</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0573</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006025</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>诺安优化配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002863</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>金信深圳成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011377</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>创金合信积极成长股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011378</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>创金合信积极成长股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1128,7 +2321,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1412,7 +2605,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1734,7 +2927,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3006,7 +4199,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3328,7 +4521,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3840,7 +5033,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4502,440 +5695,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H11"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>050009</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>博时新兴成长混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>39.70</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.81</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.49</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.1795</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>519029</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华夏稳增混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>14.22</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.95</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.98</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.8504</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>009419</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>宝盈祥明一年定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>6.51</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>21.58</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.94</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1263</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>008842</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>同泰远见灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.48</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>24.50</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.83</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0702</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>008180</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>同泰慧利混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.64</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0544</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>008093</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>同泰慧选混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.26</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0202</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>009420</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>宝盈祥明一年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>21.58</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.94</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0080</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>008094</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>同泰慧选混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.26</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0053</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>008181</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>同泰慧利混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>93.64</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0035</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>008843</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>同泰远见灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>24.50</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.83</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0034</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>